--- a/doc/FeatureCheckList.xlsx
+++ b/doc/FeatureCheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>插入电池、刷入FW</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>接收到beacon广播，stationIndex更大，则reset开机的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beacon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +137,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -158,12 +175,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -456,133 +476,147 @@
     <col min="1" max="1" width="63.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
